--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1402.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1402.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.621869157013194</v>
+        <v>1.187431931495667</v>
       </c>
       <c r="B1">
-        <v>2.450216051021913</v>
+        <v>1.960836887359619</v>
       </c>
       <c r="C1">
-        <v>2.772920790334639</v>
+        <v>6.496143817901611</v>
       </c>
       <c r="D1">
-        <v>3.222379582803801</v>
+        <v>2.296064615249634</v>
       </c>
       <c r="E1">
-        <v>1.634040123010373</v>
+        <v>1.195733547210693</v>
       </c>
     </row>
   </sheetData>
